--- a/42_Tables_3/homework/1.xlsx
+++ b/42_Tables_3/homework/1.xlsx
@@ -1,33 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasty\Downloads\Файлы ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\42_Tables_3\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91965A0A-85CD-4A32-BFA0-857DEEDE4712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D50CFD-9982-4FBB-88B0-15A84E55637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вверх</t>
+  </si>
+  <si>
+    <t>из левой нижней клетки в правую верхнюю</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>Сквозь стену Робот пройти не может. =&gt; ТУПИКИ УЧИТЫВАЕМ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,9 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -696,7 +743,9 @@
       <c r="L6" s="6">
         <v>31</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -786,6 +835,9 @@
       <c r="L8" s="6">
         <v>79</v>
       </c>
+      <c r="O8" s="10" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -824,6 +876,9 @@
       <c r="L9" s="6">
         <v>12</v>
       </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -862,6 +917,9 @@
       <c r="L10" s="6">
         <v>22</v>
       </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -900,6 +958,9 @@
       <c r="L11" s="6">
         <v>42</v>
       </c>
+      <c r="R11" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -937,6 +998,620 @@
       </c>
       <c r="L12" s="9">
         <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" ref="A14:A23" si="0">A15+A1</f>
+        <v>555</v>
+      </c>
+      <c r="B14">
+        <f>MIN(A14,B15)+B1</f>
+        <v>538</v>
+      </c>
+      <c r="C14">
+        <f>MIN(B14,C15)+C1</f>
+        <v>545</v>
+      </c>
+      <c r="D14">
+        <f>MIN(C14,D15)+D1</f>
+        <v>560</v>
+      </c>
+      <c r="E14">
+        <f>MIN(D14,E15)+E1</f>
+        <v>542</v>
+      </c>
+      <c r="F14">
+        <f>MIN(E14,F15)+F1</f>
+        <v>546</v>
+      </c>
+      <c r="G14">
+        <f>MIN(F14,G15)+G1</f>
+        <v>603</v>
+      </c>
+      <c r="H14">
+        <f>MIN(G14,H15)+H1</f>
+        <v>661</v>
+      </c>
+      <c r="I14">
+        <f>MIN(H14,I15)+I1</f>
+        <v>684</v>
+      </c>
+      <c r="J14">
+        <f>MIN(I14,J15)+J1</f>
+        <v>736</v>
+      </c>
+      <c r="K14">
+        <f>MIN(J14,K15)+K1</f>
+        <v>791</v>
+      </c>
+      <c r="L14">
+        <f>MIN(K14,L15)+L1</f>
+        <v>797</v>
+      </c>
+      <c r="O14">
+        <v>1401</v>
+      </c>
+      <c r="Q14">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="B15">
+        <f>MIN(A15,B16)+B2</f>
+        <v>490</v>
+      </c>
+      <c r="C15">
+        <f>MIN(B15,C16)+C2</f>
+        <v>489</v>
+      </c>
+      <c r="D15">
+        <f>MIN(C15,D16)+D2</f>
+        <v>473</v>
+      </c>
+      <c r="E15">
+        <f>MIN(D15,E16)+E2</f>
+        <v>539</v>
+      </c>
+      <c r="F15">
+        <f>MIN(E15,F16)+F2</f>
+        <v>502</v>
+      </c>
+      <c r="G15">
+        <f>MIN(F15,G16)+G2</f>
+        <v>578</v>
+      </c>
+      <c r="H15">
+        <f>MIN(G15,H16)+H2</f>
+        <v>625</v>
+      </c>
+      <c r="I15">
+        <f>MIN(H15,I16)+I2</f>
+        <v>675</v>
+      </c>
+      <c r="J15">
+        <f>MIN(I15,J16)+J2</f>
+        <v>722</v>
+      </c>
+      <c r="K15">
+        <f>MIN(J15,K16)+K2</f>
+        <v>744</v>
+      </c>
+      <c r="L15">
+        <f>MIN(K15,L16)+L2</f>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="B16">
+        <f>MIN(A16,B17)+B3</f>
+        <v>393</v>
+      </c>
+      <c r="C16">
+        <f>MIN(B16,C17)+C3</f>
+        <v>395</v>
+      </c>
+      <c r="D16">
+        <f>MIN(C16,D17)+D3</f>
+        <v>447</v>
+      </c>
+      <c r="E16">
+        <f>MIN(D16,E17)+E3</f>
+        <v>465</v>
+      </c>
+      <c r="F16">
+        <f>MIN(E16,F17)+F3</f>
+        <v>491</v>
+      </c>
+      <c r="G16">
+        <f>MIN(F16,G17)+G3</f>
+        <v>571</v>
+      </c>
+      <c r="H16">
+        <f>MIN(G16,H17)+H3</f>
+        <v>618</v>
+      </c>
+      <c r="I16">
+        <f>MIN(H16,I17)+I3</f>
+        <v>626</v>
+      </c>
+      <c r="J16">
+        <f>MIN(I16,J17)+J3</f>
+        <v>636</v>
+      </c>
+      <c r="K16">
+        <f>MIN(J16,K17)+K3</f>
+        <v>700</v>
+      </c>
+      <c r="L16">
+        <f>MIN(K16,L17)+L3</f>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>483</v>
+      </c>
+      <c r="B17">
+        <f>MIN(A17,B18)+B4</f>
+        <v>339</v>
+      </c>
+      <c r="C17">
+        <f>MIN(B17,C18)+C4</f>
+        <v>399</v>
+      </c>
+      <c r="D17">
+        <f>MIN(C17,D18)+D4</f>
+        <v>418</v>
+      </c>
+      <c r="E17">
+        <f>MIN(D17,E18)+E4</f>
+        <v>468</v>
+      </c>
+      <c r="F17">
+        <f>MIN(E17,F18)+F4</f>
+        <v>563</v>
+      </c>
+      <c r="G17">
+        <f>MIN(F17,G18)+G4</f>
+        <v>605</v>
+      </c>
+      <c r="H17">
+        <f>MIN(G17,H18)+H4</f>
+        <v>672</v>
+      </c>
+      <c r="I17">
+        <f>MIN(H17,I18)+I4</f>
+        <v>647</v>
+      </c>
+      <c r="J17">
+        <f>MIN(I17,J18)+J4</f>
+        <v>736</v>
+      </c>
+      <c r="K17">
+        <f>MIN(J17,K18)+K4</f>
+        <v>825</v>
+      </c>
+      <c r="L17">
+        <f>MIN(K17,L18)+L4</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="B18">
+        <f>MIN(A18,B19)+B5</f>
+        <v>266</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:K18" si="1">B18+C5</f>
+        <v>315</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>604</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
+        <v>688</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="L18">
+        <f>MIN(K18,L19)+L5</f>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="B19">
+        <f>MIN(A19,B20)+B6</f>
+        <v>265</v>
+      </c>
+      <c r="C19">
+        <f>MIN(B19,C20)+C6</f>
+        <v>289</v>
+      </c>
+      <c r="D19">
+        <f>MIN(C19,D20)+D6</f>
+        <v>375</v>
+      </c>
+      <c r="E19">
+        <f>MIN(D19,E20)+E6</f>
+        <v>416</v>
+      </c>
+      <c r="F19">
+        <f>MIN(E19,F20)+F6</f>
+        <v>389</v>
+      </c>
+      <c r="G19">
+        <f>MIN(F19,G20)+G6</f>
+        <v>459</v>
+      </c>
+      <c r="H19">
+        <f>MIN(G19,H20)+H6</f>
+        <v>529</v>
+      </c>
+      <c r="I19">
+        <f>MIN(H19,I20)+I6</f>
+        <v>519</v>
+      </c>
+      <c r="J19">
+        <f>MIN(I19,J20)+J6</f>
+        <v>608</v>
+      </c>
+      <c r="K19">
+        <f>MIN(J19,K20)+K6</f>
+        <v>658</v>
+      </c>
+      <c r="L19">
+        <f>MIN(K19,L20)+L6</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="B20">
+        <f>MIN(A20,B21)+B7</f>
+        <v>240</v>
+      </c>
+      <c r="C20">
+        <f>MIN(B20,C21)+C7</f>
+        <v>331</v>
+      </c>
+      <c r="D20">
+        <f>MIN(C20,D21)+D7</f>
+        <v>331</v>
+      </c>
+      <c r="E20">
+        <f>MIN(D20,E21)+E7</f>
+        <v>336</v>
+      </c>
+      <c r="F20">
+        <f>MIN(E20,F21)+F7</f>
+        <v>353</v>
+      </c>
+      <c r="G20">
+        <f>MIN(F20,G21)+G7</f>
+        <v>449</v>
+      </c>
+      <c r="H20">
+        <f>MIN(G20,H21)+H7</f>
+        <v>497</v>
+      </c>
+      <c r="I20">
+        <f>MIN(H20,I21)+I7</f>
+        <v>493</v>
+      </c>
+      <c r="J20">
+        <f>MIN(I20,J21)+J7</f>
+        <v>524</v>
+      </c>
+      <c r="K20">
+        <f>MIN(J20,K21)+K7</f>
+        <v>568</v>
+      </c>
+      <c r="L20">
+        <f>MIN(K20,L21)+L7</f>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="B21">
+        <f>MIN(A21,B22)+B8</f>
+        <v>232</v>
+      </c>
+      <c r="C21">
+        <f>MIN(B21,C22)+C8</f>
+        <v>249</v>
+      </c>
+      <c r="D21">
+        <f>MIN(C21,D22)+D8</f>
+        <v>264</v>
+      </c>
+      <c r="E21">
+        <f>MIN(D21,E22)+E8</f>
+        <v>346</v>
+      </c>
+      <c r="F21">
+        <f>MIN(E21,F22)+F8</f>
+        <v>339</v>
+      </c>
+      <c r="G21">
+        <f>MIN(F21,G22)+G8</f>
+        <v>415</v>
+      </c>
+      <c r="H21">
+        <f>MIN(G21,H22)+H8</f>
+        <v>406</v>
+      </c>
+      <c r="I21">
+        <f>MIN(H21,I22)+I8</f>
+        <v>467</v>
+      </c>
+      <c r="J21">
+        <f>MIN(I21,J22)+J8</f>
+        <v>473</v>
+      </c>
+      <c r="K21">
+        <f>MIN(J21,K22)+K8</f>
+        <v>502</v>
+      </c>
+      <c r="L21">
+        <f>MIN(K21,L22)+L8</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <f>MIN(A22,B23)+B9</f>
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <f>MIN(B22,C23)+C9</f>
+        <v>217</v>
+      </c>
+      <c r="D22">
+        <f>MIN(C22,D23)+D9</f>
+        <v>262</v>
+      </c>
+      <c r="E22">
+        <f>MIN(D22,E23)+E9</f>
+        <v>290</v>
+      </c>
+      <c r="F22">
+        <f>MIN(E22,F23)+F9</f>
+        <v>295</v>
+      </c>
+      <c r="G22">
+        <f>MIN(F22,G23)+G9</f>
+        <v>384</v>
+      </c>
+      <c r="H22">
+        <f>MIN(G22,H23)+H9</f>
+        <v>364</v>
+      </c>
+      <c r="I22">
+        <f>MIN(H22,I23)+I9</f>
+        <v>426</v>
+      </c>
+      <c r="J22">
+        <f>MIN(I22,J23)+J9</f>
+        <v>435</v>
+      </c>
+      <c r="K22">
+        <f>MIN(J22,K23)+K9</f>
+        <v>514</v>
+      </c>
+      <c r="L22">
+        <f>MIN(K22,L23)+L9</f>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <f>MIN(A23,B24)+B10</f>
+        <v>161</v>
+      </c>
+      <c r="C23">
+        <f>MIN(B23,C24)+C10</f>
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <f>MIN(C23,D24)+D10</f>
+        <v>224</v>
+      </c>
+      <c r="E23">
+        <f>MIN(D23,E24)+E10</f>
+        <v>238</v>
+      </c>
+      <c r="F23">
+        <f>MIN(E23,F24)+F10</f>
+        <v>265</v>
+      </c>
+      <c r="G23">
+        <f>MIN(F23,G24)+G10</f>
+        <v>305</v>
+      </c>
+      <c r="H23">
+        <f>MIN(G23,H24)+H10</f>
+        <v>336</v>
+      </c>
+      <c r="I23">
+        <f>MIN(H23,I24)+I10</f>
+        <v>381</v>
+      </c>
+      <c r="J23">
+        <f>MIN(I23,J24)+J10</f>
+        <v>406</v>
+      </c>
+      <c r="K23">
+        <f>MIN(J23,K24)+K10</f>
+        <v>480</v>
+      </c>
+      <c r="L23">
+        <f>MIN(K23,L24)+L10</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>A25+A11</f>
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <f>MIN(A24,B25)+B11</f>
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <f>MIN(B24,C25)+C11</f>
+        <v>111</v>
+      </c>
+      <c r="D24">
+        <f>MIN(C24,D25)+D11</f>
+        <v>124</v>
+      </c>
+      <c r="E24">
+        <f>MIN(D24,E25)+E11</f>
+        <v>204</v>
+      </c>
+      <c r="F24">
+        <f>MIN(E24,F25)+F11</f>
+        <v>213</v>
+      </c>
+      <c r="G24">
+        <f>MIN(F24,G25)+G11</f>
+        <v>223</v>
+      </c>
+      <c r="H24">
+        <f>MIN(G24,H25)+H11</f>
+        <v>273</v>
+      </c>
+      <c r="I24">
+        <f>MIN(H24,I25)+I11</f>
+        <v>354</v>
+      </c>
+      <c r="J24">
+        <f>MIN(I24,J25)+J11</f>
+        <v>431</v>
+      </c>
+      <c r="K24">
+        <f>MIN(J24,K25)+K11</f>
+        <v>500</v>
+      </c>
+      <c r="L24">
+        <f>MIN(K24,L25)+L11</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f>A12</f>
+        <v>36</v>
+      </c>
+      <c r="B25" s="8">
+        <f>A25+B12</f>
+        <v>37</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:L25" si="2">B25+C12</f>
+        <v>100</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="2"/>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
